--- a/public/syllabus/1597202740088.xlsx
+++ b/public/syllabus/1597202740088.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lc3547\Desktop\DCS Syllabus Indivi_18 May 2020\BoSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\fyp\public\syllabus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="BTIS2073" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">BTIS2073!$B$4:$Q$64</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -236,24 +236,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2. Cryptography: 
-• Foundations of Cryptography
-• Cipher Mehods
-• Cryptographic Algorithms
-• Cryptographic Tools, Protocols for Secure Communications
-• Attacks on Cryptosystems.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. The Need for Security: 
-• Business Needs First
-• Threats
-• Attacks
-- Viruses and other malicious code
-• Secure Software Develoment.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">4. Security Technology: Intrusion Detection, Access Control, and other Security Tools
 • Intrusion Detection and Prevention Systems, 
 • Honeypots, Honeynets, and Padded Cell Systems
@@ -271,15 +253,6 @@
 • Privacy
 • Ethical Issues in Computer Security
 • Case Studies of Ethics
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.  Risk Management: 
-• Overview
-• Risk Identification
-• Risk Assessment
-• Risk Control Strategies
-• Quantitative vs Qualitative Risk Control Practices.
 </t>
   </si>
   <si>
@@ -401,11 +374,38 @@
 Michael E. Whitman and Herbert J. Mattord. Principles of Information Security, 5th Edition, Delmar Cengage Learning, 2016.
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">2. Cryptography
+• Foundations of Cryptography
+• Cipher Mehods
+• Cryptographic Algorithms
+• Cryptographic Tools, Protocols for Secure Communications
+• Attacks on Cryptosystems.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. The Need for Security :
+• Business Needs First
+• Threats
+• Attacks
+- Viruses and other malicious code
+• Secure Software Develoment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Risk Management
+• Overview
+• Risk Identification
+• Risk Assessment
+• Risk Control Strategies
+• Quantitative vs Qualitative Risk Control Practices.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1208,143 +1208,299 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1370,260 +1526,104 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1712,7 +1712,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1747,7 +1747,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1961,172 +1961,172 @@
   </sheetPr>
   <dimension ref="B2:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61:Q63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="2" customWidth="1"/>
-    <col min="4" max="9" width="10.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="2" customWidth="1"/>
-    <col min="11" max="15" width="10.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="2.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="2" customWidth="1"/>
+    <col min="4" max="9" width="10.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="2" customWidth="1"/>
+    <col min="11" max="15" width="10.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="51" t="s">
+    <row r="3" spans="2:17" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="134" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
-    </row>
-    <row r="5" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="52"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="99"/>
+    </row>
+    <row r="5" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="136"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="54"/>
-    </row>
-    <row r="6" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="51" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="99"/>
+    </row>
+    <row r="6" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="61"/>
-    </row>
-    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="55"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="64"/>
-    </row>
-    <row r="8" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="67"/>
-    </row>
-    <row r="9" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="169"/>
+    </row>
+    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="135"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="172"/>
+    </row>
+    <row r="8" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="136"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="175"/>
+    </row>
+    <row r="9" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
-    </row>
-    <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="99"/>
+    </row>
+    <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="151"/>
       <c r="H10" s="9">
         <v>1</v>
       </c>
@@ -2136,220 +2136,220 @@
       <c r="J10" s="9">
         <v>1</v>
       </c>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="83"/>
-    </row>
-    <row r="11" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="152"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="154"/>
+    </row>
+    <row r="11" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="155">
         <f>ROUNDDOWN(Q58,0)</f>
         <v>3</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="85"/>
-    </row>
-    <row r="12" spans="2:17" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="156"/>
+    </row>
+    <row r="12" spans="2:17" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
-    </row>
-    <row r="13" spans="2:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
+      <c r="D12" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="99"/>
+    </row>
+    <row r="13" spans="2:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="70"/>
-    </row>
-    <row r="14" spans="2:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="55"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="137"/>
+    </row>
+    <row r="14" spans="2:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="135"/>
       <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="73"/>
-    </row>
-    <row r="15" spans="2:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="159"/>
+    </row>
+    <row r="15" spans="2:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="135"/>
       <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="77"/>
-    </row>
-    <row r="16" spans="2:17" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="55"/>
+      <c r="D15" s="160" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="163"/>
+    </row>
+    <row r="16" spans="2:17" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="135"/>
       <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="77"/>
-    </row>
-    <row r="17" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="51" t="s">
+      <c r="D16" s="160" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="163"/>
+    </row>
+    <row r="17" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="70"/>
-    </row>
-    <row r="18" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="55"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="88"/>
-    </row>
-    <row r="19" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="55"/>
-      <c r="C19" s="89" t="s">
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="137"/>
+    </row>
+    <row r="18" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="135"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="139"/>
+    </row>
+    <row r="19" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="135"/>
+      <c r="C19" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94" t="s">
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="94" t="s">
+      <c r="Q19" s="143" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="55"/>
-      <c r="C20" s="90"/>
+    <row r="20" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="135"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
@@ -2378,11 +2378,11 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-    </row>
-    <row r="21" spans="2:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="55"/>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="144"/>
+    </row>
+    <row r="21" spans="2:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="135"/>
       <c r="C21" s="12" t="s">
         <v>40</v>
       </c>
@@ -2401,14 +2401,14 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="55"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="135"/>
       <c r="C22" s="12" t="s">
         <v>42</v>
       </c>
@@ -2427,14 +2427,14 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="55"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="135"/>
       <c r="C23" s="12" t="s">
         <v>43</v>
       </c>
@@ -2453,14 +2453,14 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="55"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="135"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
@@ -2477,216 +2477,216 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="21"/>
     </row>
-    <row r="25" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="55"/>
-      <c r="C25" s="96" t="s">
+    <row r="25" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="135"/>
+      <c r="C25" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="98"/>
-    </row>
-    <row r="26" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="52"/>
-      <c r="C26" s="99" t="s">
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="146"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="146"/>
+      <c r="Q25" s="147"/>
+    </row>
+    <row r="26" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="136"/>
+      <c r="C26" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="101"/>
-    </row>
-    <row r="27" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="s">
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="148"/>
+    </row>
+    <row r="27" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="137"/>
       <c r="I27" s="22">
         <v>1</v>
       </c>
-      <c r="J27" s="105" t="s">
+      <c r="J27" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="54"/>
-    </row>
-    <row r="28" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="99"/>
+    </row>
+    <row r="28" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="135"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="138"/>
       <c r="I28" s="22">
         <v>2</v>
       </c>
-      <c r="J28" s="105" t="s">
+      <c r="J28" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="54"/>
-    </row>
-    <row r="29" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="52"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="88"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="99"/>
+    </row>
+    <row r="29" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="136"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="139"/>
       <c r="I29" s="22">
         <v>3</v>
       </c>
-      <c r="J29" s="105" t="s">
+      <c r="J29" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="54"/>
-    </row>
-    <row r="30" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="158" t="s">
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="99"/>
+    </row>
+    <row r="30" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="161" t="s">
+      <c r="C30" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="161"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="161"/>
-      <c r="Q30" s="162"/>
-    </row>
-    <row r="31" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="159"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="164"/>
-    </row>
-    <row r="32" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="159"/>
-      <c r="C32" s="121" t="s">
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="96"/>
+    </row>
+    <row r="31" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="93"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="98"/>
+    </row>
+    <row r="32" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="93"/>
+      <c r="C32" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="127" t="s">
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="K32" s="112" t="s">
+      <c r="K32" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="109" t="s">
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="118" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="159"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="112" t="s">
+    <row r="33" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="93"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="115" t="s">
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="P33" s="115" t="s">
+      <c r="P33" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="Q33" s="110"/>
-    </row>
-    <row r="34" spans="2:17" ht="64.349999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="159"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="128"/>
+      <c r="Q33" s="119"/>
+    </row>
+    <row r="34" spans="2:17" ht="64.349999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="93"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="133"/>
       <c r="K34" s="23" t="s">
         <v>60</v>
       </c>
@@ -2699,21 +2699,21 @@
       <c r="N34" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="O34" s="116"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="111"/>
-    </row>
-    <row r="35" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="159"/>
-      <c r="C35" s="106" t="s">
+      <c r="O34" s="125"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="120"/>
+    </row>
+    <row r="35" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="93"/>
+      <c r="C35" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="108"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="117"/>
       <c r="J35" s="25">
         <v>1</v>
       </c>
@@ -2732,17 +2732,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="159"/>
-      <c r="C36" s="118" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="120"/>
+    <row r="36" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="93"/>
+      <c r="C36" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="129"/>
       <c r="J36" s="25">
         <v>2</v>
       </c>
@@ -2763,17 +2763,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="159"/>
-      <c r="C37" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="108"/>
+    <row r="37" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="93"/>
+      <c r="C37" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="117"/>
       <c r="J37" s="25">
         <v>2</v>
       </c>
@@ -2794,17 +2794,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="159"/>
-      <c r="C38" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="108"/>
+    <row r="38" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="93"/>
+      <c r="C38" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="117"/>
       <c r="J38" s="25">
         <v>2</v>
       </c>
@@ -2823,17 +2823,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:17" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="159"/>
-      <c r="C39" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="108"/>
+    <row r="39" spans="2:17" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="93"/>
+      <c r="C39" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="117"/>
       <c r="J39" s="25">
         <v>3</v>
       </c>
@@ -2852,17 +2852,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:17" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="159"/>
-      <c r="C40" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="108"/>
+    <row r="40" spans="2:17" ht="99.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="93"/>
+      <c r="C40" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="117"/>
       <c r="J40" s="25">
         <v>1</v>
       </c>
@@ -2881,17 +2881,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="159"/>
-      <c r="C41" s="106" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="108"/>
+    <row r="41" spans="2:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="93"/>
+      <c r="C41" s="115" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="117"/>
       <c r="J41" s="25">
         <v>2</v>
       </c>
@@ -2910,17 +2910,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:17" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="159"/>
-      <c r="C42" s="106" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="108"/>
+    <row r="42" spans="2:17" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="93"/>
+      <c r="C42" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="117"/>
       <c r="J42" s="25">
         <v>1</v>
       </c>
@@ -2939,31 +2939,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="159"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="K43" s="130"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="130"/>
-      <c r="N43" s="130"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="130"/>
+    <row r="43" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="93"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
       <c r="Q43" s="30">
         <f>SUM(Q35:Q42)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="159"/>
+    <row r="44" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="93"/>
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
@@ -2980,143 +2980,143 @@
       <c r="P44" s="32"/>
       <c r="Q44" s="33"/>
     </row>
-    <row r="45" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="159"/>
-      <c r="C45" s="121" t="s">
+    <row r="45" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="93"/>
+      <c r="C45" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="K45" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="L45" s="108"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="121"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="K45" s="131" t="s">
-        <v>75</v>
-      </c>
-      <c r="L45" s="132"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="131" t="s">
-        <v>76</v>
-      </c>
-      <c r="O45" s="132"/>
-      <c r="P45" s="133"/>
-      <c r="Q45" s="89" t="s">
+      <c r="O45" s="108"/>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="79" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="159"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="134"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="136"/>
-      <c r="N46" s="134"/>
-      <c r="O46" s="135"/>
-      <c r="P46" s="136"/>
-      <c r="Q46" s="90"/>
-    </row>
-    <row r="47" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="159"/>
+    <row r="46" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="93"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="112"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="112"/>
+      <c r="Q46" s="80"/>
+    </row>
+    <row r="47" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="93"/>
       <c r="C47" s="34">
         <v>1</v>
       </c>
-      <c r="D47" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
+      <c r="D47" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
       <c r="J47" s="9">
         <v>15</v>
       </c>
-      <c r="K47" s="137"/>
-      <c r="L47" s="138"/>
-      <c r="M47" s="139"/>
-      <c r="N47" s="140">
+      <c r="K47" s="83"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="113">
         <v>10</v>
       </c>
-      <c r="O47" s="140"/>
-      <c r="P47" s="140"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="113"/>
       <c r="Q47" s="35">
         <f>SUM(K47:P47)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="159"/>
+    <row r="48" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="93"/>
       <c r="C48" s="36">
         <v>2</v>
       </c>
-      <c r="D48" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
+      <c r="D48" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
       <c r="J48" s="9">
         <v>25</v>
       </c>
-      <c r="K48" s="137">
+      <c r="K48" s="83">
         <v>2</v>
       </c>
-      <c r="L48" s="138"/>
-      <c r="M48" s="139"/>
-      <c r="N48" s="140">
+      <c r="L48" s="84"/>
+      <c r="M48" s="85"/>
+      <c r="N48" s="113">
         <v>6</v>
       </c>
-      <c r="O48" s="140"/>
-      <c r="P48" s="140"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="113"/>
       <c r="Q48" s="35">
         <f>SUM(K48:P48)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="159"/>
+    <row r="49" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="93"/>
       <c r="C49" s="37">
         <v>3</v>
       </c>
-      <c r="D49" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="54"/>
+      <c r="D49" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="99"/>
       <c r="J49" s="9">
         <v>20</v>
       </c>
-      <c r="K49" s="137"/>
-      <c r="L49" s="138"/>
-      <c r="M49" s="139"/>
-      <c r="N49" s="165">
+      <c r="K49" s="83"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="100">
         <v>15</v>
       </c>
-      <c r="O49" s="166"/>
-      <c r="P49" s="167"/>
+      <c r="O49" s="101"/>
+      <c r="P49" s="102"/>
       <c r="Q49" s="35">
         <f>SUM(K49:P49)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="159"/>
+    <row r="50" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="93"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
@@ -3124,22 +3124,22 @@
       <c r="G50" s="31"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
-      <c r="J50" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="K50" s="130"/>
-      <c r="L50" s="130"/>
-      <c r="M50" s="130"/>
-      <c r="N50" s="130"/>
-      <c r="O50" s="130"/>
-      <c r="P50" s="130"/>
+      <c r="J50" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
       <c r="Q50" s="30">
         <f>SUM(Q47:Q49)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="159"/>
+    <row r="51" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="93"/>
       <c r="C51" s="31"/>
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
@@ -3156,85 +3156,85 @@
       <c r="P51" s="32"/>
       <c r="Q51" s="33"/>
     </row>
-    <row r="52" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="159"/>
-      <c r="C52" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="K52" s="131" t="s">
-        <v>75</v>
-      </c>
-      <c r="L52" s="132"/>
-      <c r="M52" s="133"/>
-      <c r="N52" s="131" t="s">
-        <v>76</v>
-      </c>
-      <c r="O52" s="132"/>
-      <c r="P52" s="133"/>
-      <c r="Q52" s="89" t="s">
+    <row r="52" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="93"/>
+      <c r="C52" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="K52" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="L52" s="108"/>
+      <c r="M52" s="109"/>
+      <c r="N52" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="O52" s="108"/>
+      <c r="P52" s="109"/>
+      <c r="Q52" s="79" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="159"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="134"/>
-      <c r="L53" s="135"/>
-      <c r="M53" s="136"/>
-      <c r="N53" s="134"/>
-      <c r="O53" s="135"/>
-      <c r="P53" s="136"/>
-      <c r="Q53" s="90"/>
-    </row>
-    <row r="54" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="159"/>
+    <row r="53" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="93"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="110"/>
+      <c r="L53" s="111"/>
+      <c r="M53" s="112"/>
+      <c r="N53" s="110"/>
+      <c r="O53" s="111"/>
+      <c r="P53" s="112"/>
+      <c r="Q53" s="80"/>
+    </row>
+    <row r="54" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="93"/>
       <c r="C54" s="30">
         <v>1</v>
       </c>
-      <c r="D54" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
+      <c r="D54" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
       <c r="J54" s="9">
         <v>40</v>
       </c>
-      <c r="K54" s="137">
+      <c r="K54" s="83">
         <v>2.5</v>
       </c>
-      <c r="L54" s="138"/>
-      <c r="M54" s="139"/>
-      <c r="N54" s="138">
+      <c r="L54" s="84"/>
+      <c r="M54" s="85"/>
+      <c r="N54" s="84">
         <v>9.5</v>
       </c>
-      <c r="O54" s="138"/>
-      <c r="P54" s="153"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="86"/>
       <c r="Q54" s="50">
         <f>SUM(K54:P54)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="159"/>
+    <row r="55" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="93"/>
       <c r="C55" s="31"/>
       <c r="D55" s="31"/>
       <c r="E55" s="31"/>
@@ -3242,32 +3242,32 @@
       <c r="G55" s="31"/>
       <c r="H55" s="31"/>
       <c r="I55" s="31"/>
-      <c r="J55" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="K55" s="130"/>
-      <c r="L55" s="130"/>
-      <c r="M55" s="130"/>
-      <c r="N55" s="130"/>
-      <c r="O55" s="130"/>
-      <c r="P55" s="130"/>
+      <c r="J55" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="K55" s="87"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="87"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="87"/>
+      <c r="P55" s="87"/>
       <c r="Q55" s="38">
         <f>SUM(Q54:Q54)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="159"/>
-      <c r="C56" s="154" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="155"/>
-      <c r="E56" s="155"/>
-      <c r="F56" s="155"/>
-      <c r="G56" s="155"/>
-      <c r="H56" s="155"/>
-      <c r="I56" s="155"/>
-      <c r="J56" s="155"/>
+    <row r="56" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="93"/>
+      <c r="C56" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
       <c r="K56" s="32"/>
       <c r="L56" s="32"/>
       <c r="M56" s="32"/>
@@ -3277,41 +3277,41 @@
       <c r="Q56" s="33"/>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="159"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="155"/>
-      <c r="F57" s="155"/>
-      <c r="G57" s="155"/>
-      <c r="H57" s="155"/>
-      <c r="I57" s="155"/>
-      <c r="J57" s="155"/>
+    <row r="57" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="93"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
       <c r="K57" s="40"/>
       <c r="M57" s="40"/>
       <c r="N57" s="41"/>
-      <c r="O57" s="156" t="s">
-        <v>83</v>
-      </c>
-      <c r="P57" s="157"/>
+      <c r="O57" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="P57" s="91"/>
       <c r="Q57" s="22">
         <f>SUM(Q43,Q50,Q55)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="159"/>
-      <c r="C58" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="172"/>
-      <c r="E58" s="172"/>
-      <c r="F58" s="172"/>
-      <c r="G58" s="172"/>
-      <c r="H58" s="172"/>
-      <c r="I58" s="172"/>
-      <c r="J58" s="172"/>
-      <c r="K58" s="172"/>
+    <row r="58" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="93"/>
+      <c r="C58" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
       <c r="L58" s="42"/>
       <c r="M58" s="42"/>
       <c r="N58" s="42"/>
@@ -3322,17 +3322,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="160"/>
-      <c r="C59" s="99" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="100"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="100"/>
+    <row r="59" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="94"/>
+      <c r="C59" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
       <c r="J59" s="45"/>
       <c r="K59" s="45"/>
       <c r="L59" s="42"/>
@@ -3342,129 +3342,184 @@
       <c r="P59" s="43"/>
       <c r="Q59" s="46"/>
     </row>
-    <row r="60" spans="2:18" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="47">
         <v>11</v>
       </c>
-      <c r="C60" s="173" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="174"/>
+      <c r="C60" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="62"/>
       <c r="E60" s="48"/>
       <c r="F60" s="48"/>
       <c r="G60" s="48"/>
-      <c r="H60" s="175" t="s">
-        <v>87</v>
-      </c>
-      <c r="I60" s="145"/>
-      <c r="J60" s="145"/>
-      <c r="K60" s="145"/>
-      <c r="L60" s="145"/>
-      <c r="M60" s="145"/>
-      <c r="N60" s="145"/>
-      <c r="O60" s="145"/>
-      <c r="P60" s="145"/>
-      <c r="Q60" s="146"/>
-    </row>
-    <row r="61" spans="2:18" s="49" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="141">
+      <c r="H60" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="65"/>
+    </row>
+    <row r="61" spans="2:18" s="49" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="66">
         <v>12</v>
       </c>
-      <c r="C61" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="144" t="s">
-        <v>96</v>
-      </c>
-      <c r="J61" s="145"/>
-      <c r="K61" s="145"/>
-      <c r="L61" s="145"/>
-      <c r="M61" s="145"/>
-      <c r="N61" s="145"/>
-      <c r="O61" s="145"/>
-      <c r="P61" s="145"/>
-      <c r="Q61" s="146"/>
-    </row>
-    <row r="62" spans="2:18" s="49" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="142"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="147"/>
-      <c r="J62" s="148"/>
-      <c r="K62" s="148"/>
-      <c r="L62" s="148"/>
-      <c r="M62" s="148"/>
-      <c r="N62" s="148"/>
-      <c r="O62" s="148"/>
-      <c r="P62" s="148"/>
-      <c r="Q62" s="149"/>
-    </row>
-    <row r="63" spans="2:18" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="143"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="150"/>
-      <c r="J63" s="151"/>
-      <c r="K63" s="151"/>
-      <c r="L63" s="151"/>
-      <c r="M63" s="151"/>
-      <c r="N63" s="151"/>
-      <c r="O63" s="151"/>
-      <c r="P63" s="151"/>
-      <c r="Q63" s="152"/>
-    </row>
-    <row r="64" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="65"/>
+    </row>
+    <row r="62" spans="2:18" s="49" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="67"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="77"/>
+      <c r="O62" s="77"/>
+      <c r="P62" s="77"/>
+      <c r="Q62" s="78"/>
+    </row>
+    <row r="63" spans="2:18" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="68"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="56"/>
+    </row>
+    <row r="64" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="47">
         <v>13</v>
       </c>
-      <c r="C64" s="168" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="169"/>
-      <c r="E64" s="169"/>
-      <c r="F64" s="169"/>
-      <c r="G64" s="169"/>
-      <c r="H64" s="170"/>
-      <c r="I64" s="150" t="s">
-        <v>90</v>
-      </c>
-      <c r="J64" s="151"/>
-      <c r="K64" s="151"/>
-      <c r="L64" s="151"/>
-      <c r="M64" s="151"/>
-      <c r="N64" s="151"/>
-      <c r="O64" s="151"/>
-      <c r="P64" s="151"/>
-      <c r="Q64" s="152"/>
-    </row>
-    <row r="65" ht="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C64" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="56"/>
+    </row>
+    <row r="65" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="83">
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="I64:Q64"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="C59:I59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="H60:Q60"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:Q8"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:Q13"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D9:Q9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C17:Q18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:O19"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:H29"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="Q32:Q34"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="J43:P43"/>
+    <mergeCell ref="C45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:M46"/>
+    <mergeCell ref="N45:P46"/>
+    <mergeCell ref="C52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:M53"/>
+    <mergeCell ref="N52:P53"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="C61:H63"/>
     <mergeCell ref="I61:Q63"/>
@@ -3481,67 +3536,12 @@
     <mergeCell ref="K49:M49"/>
     <mergeCell ref="N49:P49"/>
     <mergeCell ref="J50:P50"/>
-    <mergeCell ref="C52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:M53"/>
-    <mergeCell ref="N52:P53"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="J43:P43"/>
-    <mergeCell ref="C45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:M46"/>
-    <mergeCell ref="N45:P46"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="Q32:Q34"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:H29"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="C17:Q18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:O19"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="D9:Q9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:Q13"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:Q8"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="I64:Q64"/>
+    <mergeCell ref="C58:K58"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="H60:Q60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="'FORM'!A1" display="Back"/>
@@ -3554,31 +3554,31 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]Data!#REF!</xm:f>
+            <xm:f>'C:\D\DCS\Syllabus CS - (New, 2017)\Dr. Sim\[simhiewmoitable4A&amp;8297.xlsm]Data'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]Data!#REF!</xm:f>
+            <xm:f>'C:\D\DCS\Syllabus CS - (New, 2017)\Dr. Sim\[simhiewmoitable4A&amp;8297.xlsm]Data'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]Data!#REF!</xm:f>
+            <xm:f>'C:\D\DCS\Syllabus CS - (New, 2017)\Dr. Sim\[simhiewmoitable4A&amp;8297.xlsm]Data'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>K22:O22 G23 I23:O25 D24:G25 H22:H25 D22:D23 E22:G22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>[1]Data!#REF!</xm:f>
+            <xm:f>'C:\D\DCS\Syllabus CS - (New, 2017)\Dr. Sim\[simhiewmoitable4A&amp;8297.xlsm]Data'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J29:Q31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]Data!#REF!</xm:f>
+            <xm:f>'C:\D\DCS\Syllabus CS - (New, 2017)\Dr. Sim\[simhiewmoitable4A&amp;8297.xlsm]Data'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>N79</xm:sqref>
         </x14:dataValidation>
